--- a/posesiones/1381263.xlsx
+++ b/posesiones/1381263.xlsx
@@ -1883,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>23</v>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>21</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>7</v>
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>20</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>14</v>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>10</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>18</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>17</v>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>8</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>10</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25">
         <v>14</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R27">
         <v>11</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R29">
         <v>9</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>20</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R35">
         <v>19</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37">
         <v>18</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R39">
         <v>18</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R41">
         <v>8</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R46">
         <v>12</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R48">
         <v>14</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>11</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R52">
         <v>17</v>
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R53">
         <v>13</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4501,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R55">
         <v>13</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R56">
         <v>16</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R58">
         <v>14</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R60">
         <v>5</v>
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R61">
         <v>14</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R63">
         <v>15</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R65">
         <v>12</v>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R66">
         <v>26</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5260,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R70">
         <v>16</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R72">
         <v>16</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5463,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R74">
         <v>5</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R77">
         <v>24</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5804,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R81">
         <v>22</v>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R83">
         <v>17</v>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R85">
         <v>17</v>
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R90">
         <v>19</v>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6336,10 +6336,10 @@
         <v>1</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6568,10 +6568,10 @@
         <v>1</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6621,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R98">
         <v>10</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6724,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R100">
         <v>23</v>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6918,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R104">
         <v>9</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7115,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R108">
         <v>31</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7259,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R113">
         <v>19</v>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R115">
         <v>4</v>
@@ -7509,7 +7509,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R116">
         <v>14</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7988,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R126">
         <v>18</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8088,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R128">
         <v>21</v>
@@ -8138,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8282,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R132">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R134">
         <v>6</v>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R138">
         <v>14</v>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8688,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R140">
         <v>10</v>
@@ -8741,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R141">
         <v>22</v>
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9029,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R147">
         <v>13</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9132,7 +9132,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R149">
         <v>6</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9232,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R151">
         <v>6</v>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9376,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R154">
         <v>25</v>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9479,7 +9479,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R156">
         <v>18</v>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9817,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R163">
         <v>19</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9917,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R165">
         <v>12</v>
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10020,7 +10020,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R167">
         <v>15</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10355,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R174">
         <v>7</v>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10499,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10549,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R178">
         <v>23</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10693,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10740,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10787,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10931,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11075,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R189">
         <v>23</v>
@@ -11128,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R190">
         <v>10</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11228,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R192">
         <v>14</v>
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11419,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11469,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R197">
         <v>14</v>
@@ -11522,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R198">
         <v>15</v>
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R199">
         <v>18</v>
@@ -11628,7 +11628,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R200">
         <v>16</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11728,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R202">
         <v>13</v>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11828,7 +11828,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R204">
         <v>10</v>
@@ -11878,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11922,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12019,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12069,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R209">
         <v>20</v>
@@ -12119,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R212">
         <v>9</v>
@@ -12266,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12316,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R214">
         <v>16</v>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12416,7 +12416,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R216">
         <v>18</v>
@@ -12466,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12516,7 +12516,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R218">
         <v>18</v>
@@ -12566,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12613,7 +12613,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12663,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12710,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12804,7 +12804,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13036,7 +13036,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13133,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R231">
         <v>26</v>
@@ -13186,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R232">
         <v>10</v>
@@ -13239,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13289,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R234">
         <v>4</v>
@@ -13333,10 +13333,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q235">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13383,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13430,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13565,10 +13565,10 @@
         <v>1</v>
       </c>
       <c r="P240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q240">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13615,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13759,7 +13759,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R245">
         <v>22</v>
@@ -13862,7 +13862,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R246">
         <v>9</v>
@@ -13912,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14012,7 +14012,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R249">
         <v>21</v>
@@ -14065,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R250">
         <v>17</v>
@@ -14115,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14165,7 +14165,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R252">
         <v>12</v>
@@ -14215,7 +14215,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14262,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14359,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R256">
         <v>23</v>
@@ -14409,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14509,7 +14509,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R259">
         <v>22</v>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14656,7 +14656,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R262">
         <v>18</v>
@@ -14706,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14756,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14850,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14900,7 +14900,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R267">
         <v>17</v>
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15003,7 +15003,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R269">
         <v>7</v>
@@ -15056,7 +15056,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15106,7 +15106,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R271">
         <v>7</v>
@@ -15159,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R272">
         <v>21</v>
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15259,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15306,7 +15306,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R276">
         <v>22</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15453,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15547,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15594,7 +15594,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15644,7 +15644,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R282">
         <v>12</v>
@@ -15697,7 +15697,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R283">
         <v>20</v>
@@ -15747,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15797,7 +15797,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R285">
         <v>6</v>
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R287">
         <v>15</v>
@@ -15950,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R288">
         <v>7</v>
@@ -16000,7 +16000,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16047,7 +16047,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16094,7 +16094,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16141,7 +16141,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16235,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16285,7 +16285,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R295">
         <v>22</v>
@@ -16335,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16382,7 +16382,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16432,7 +16432,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R298">
         <v>21</v>
@@ -16482,7 +16482,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16529,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16576,7 +16576,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16670,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16720,7 +16720,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R304">
         <v>4</v>
@@ -16770,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16817,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16911,7 +16911,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16961,7 +16961,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R309">
         <v>13</v>
@@ -17014,7 +17014,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R310">
         <v>17</v>
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17111,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17255,7 +17255,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R315">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R316">
         <v>19</v>
@@ -17361,7 +17361,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R317">
         <v>17</v>
@@ -17414,7 +17414,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R318">
         <v>16</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R319">
         <v>14</v>
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17564,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17611,7 +17611,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17708,7 +17708,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R324">
         <v>23</v>
@@ -17761,7 +17761,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R326">
         <v>19</v>
@@ -17861,7 +17861,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17908,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17955,7 +17955,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18005,7 +18005,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18055,7 +18055,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R331">
         <v>8</v>
@@ -18105,7 +18105,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18199,7 +18199,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18249,7 +18249,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R335">
         <v>30</v>
@@ -18302,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18349,7 +18349,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18496,7 +18496,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R340">
         <v>31</v>
@@ -18546,7 +18546,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18690,7 +18690,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R344">
         <v>19</v>
@@ -18743,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18837,7 +18837,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18884,7 +18884,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18931,7 +18931,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18978,7 +18978,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19025,7 +19025,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19119,7 +19119,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19169,7 +19169,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R354">
         <v>3</v>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19269,7 +19269,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19316,7 +19316,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19363,7 +19363,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19410,7 +19410,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19457,7 +19457,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19504,7 +19504,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19551,7 +19551,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19598,7 +19598,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19695,7 +19695,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R365">
         <v>16</v>
@@ -19745,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19792,7 +19792,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19839,7 +19839,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19933,7 +19933,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20030,7 +20030,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R372">
         <v>20</v>
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20130,7 +20130,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R374">
         <v>8</v>
@@ -20174,10 +20174,10 @@
         <v>1</v>
       </c>
       <c r="P375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q375">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20224,7 +20224,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20271,7 +20271,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20365,7 +20365,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20412,7 +20412,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20459,7 +20459,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20506,7 +20506,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20553,7 +20553,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20594,10 +20594,10 @@
         <v>1</v>
       </c>
       <c r="P384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q384">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20647,7 +20647,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R385">
         <v>10</v>
@@ -20697,7 +20697,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20747,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R388">
         <v>18</v>
@@ -20847,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20894,7 +20894,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20994,7 +20994,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R392">
         <v>30</v>
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21091,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21141,7 +21141,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21191,7 +21191,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R396">
         <v>13</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21285,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21382,7 +21382,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R400">
         <v>10</v>
@@ -21435,7 +21435,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R401">
         <v>22</v>
@@ -21488,7 +21488,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21535,7 +21535,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21582,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21629,7 +21629,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21679,7 +21679,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R406">
         <v>8</v>
@@ -21729,7 +21729,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21826,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21873,7 +21873,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21920,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21967,7 +21967,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22014,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22061,7 +22061,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22108,7 +22108,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22158,7 +22158,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R416">
         <v>42</v>
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22255,7 +22255,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22305,7 +22305,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R419">
         <v>23</v>
@@ -22358,7 +22358,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22455,7 +22455,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22502,7 +22502,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22549,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22596,7 +22596,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22643,7 +22643,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22693,7 +22693,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22743,7 +22743,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R428">
         <v>15</v>
@@ -22793,7 +22793,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22887,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22934,7 +22934,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23031,7 +23031,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R434">
         <v>16</v>
@@ -23084,7 +23084,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R435">
         <v>6</v>
@@ -23137,7 +23137,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R436">
         <v>11</v>
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23237,7 +23237,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23337,7 +23337,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R440">
         <v>25</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23572,7 +23572,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23622,7 +23622,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R446">
         <v>24</v>
@@ -23675,7 +23675,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R447">
         <v>14</v>
@@ -23725,7 +23725,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23775,7 +23775,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R449">
         <v>23</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23878,7 +23878,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R451">
         <v>17</v>
@@ -23928,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23978,7 +23978,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R453">
         <v>16</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24075,7 +24075,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24122,7 +24122,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24313,7 +24313,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R460">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24413,7 +24413,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24507,7 +24507,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24554,7 +24554,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R467">
         <v>6</v>
@@ -24704,7 +24704,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R468">
         <v>19</v>
@@ -24757,7 +24757,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24948,7 +24948,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R473">
         <v>7</v>
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25051,7 +25051,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R475">
         <v>9</v>
@@ -25104,7 +25104,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25154,7 +25154,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R477">
         <v>5</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25254,7 +25254,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R479">
         <v>14</v>
@@ -25307,7 +25307,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R480">
         <v>24</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25410,7 +25410,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R482">
         <v>6</v>
@@ -25460,7 +25460,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25507,7 +25507,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25601,7 +25601,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25695,7 +25695,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25742,7 +25742,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25792,7 +25792,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R490">
         <v>13</v>
@@ -25845,7 +25845,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R491">
         <v>9</v>
@@ -25898,7 +25898,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R492">
         <v>25</v>
@@ -25951,7 +25951,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26001,7 +26001,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R494">
         <v>7</v>
@@ -26054,7 +26054,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26104,7 +26104,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R496">
         <v>22</v>
@@ -26157,7 +26157,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R497">
         <v>22</v>
@@ -26210,7 +26210,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26257,7 +26257,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26304,7 +26304,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26354,7 +26354,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R501">
         <v>6</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26454,7 +26454,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R503">
         <v>6</v>
@@ -26501,7 +26501,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26551,7 +26551,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R505">
         <v>14</v>
@@ -26601,7 +26601,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26648,7 +26648,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26698,7 +26698,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R508">
         <v>0</v>
@@ -26751,7 +26751,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26848,7 +26848,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26898,7 +26898,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R512">
         <v>12</v>
@@ -26948,7 +26948,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27092,7 +27092,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R516">
         <v>11</v>
@@ -27145,7 +27145,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27195,7 +27195,7 @@
         <v>1</v>
       </c>
       <c r="Q518">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R518">
         <v>7</v>
@@ -27245,7 +27245,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27292,7 +27292,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27339,7 +27339,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27386,7 +27386,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27480,7 +27480,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27530,7 +27530,7 @@
         <v>1</v>
       </c>
       <c r="Q525">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R525">
         <v>3</v>
@@ -27583,7 +27583,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R526">
         <v>6</v>
@@ -27639,7 +27639,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R527">
         <v>0</v>
@@ -27683,10 +27683,10 @@
         <v>1</v>
       </c>
       <c r="P528" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q528">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="529" spans="1:17">
@@ -27727,7 +27727,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
